--- a/BalanceSheet/PAYC_bal.xlsx
+++ b/BalanceSheet/PAYC_bal.xlsx
@@ -460,19 +460,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-73000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>465000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-687000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>254000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-222000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>700000.0</v>
@@ -1543,19 +1543,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-2962000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>5508000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-1425000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>408000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>749000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>4693000.0</v>
@@ -2785,19 +2785,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>10177000.0</v>
+        <v>113000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>3885000.0</v>
+        <v>102000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>5927000.0</v>
+        <v>99000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1392000.0</v>
+        <v>93000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>5296000.0</v>
+        <v>91000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>85921000.0</v>
